--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_bedrooms_2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -758,38 +758,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_anzgh.png</t>
+          <t>stimuli/img_ose78.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>75.10526315789474</v>
+        <v>80.19444444444444</v>
       </c>
       <c r="N5">
-        <v>55.76315789473684</v>
+        <v>60.25</v>
       </c>
       <c r="O5">
-        <v>65.43421052631579</v>
+        <v>70.22222222222223</v>
       </c>
       <c r="P5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -835,38 +835,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_ose78.png</t>
+          <t>stimuli/img_5p2ql.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>80.19444444444444</v>
+        <v>89.19565217391305</v>
       </c>
       <c r="N6">
-        <v>60.25</v>
+        <v>72.52173913043478</v>
       </c>
       <c r="O6">
-        <v>70.22222222222223</v>
+        <v>80.85869565217391</v>
       </c>
       <c r="P6">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -994,38 +994,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_5p2ql.png</t>
+          <t>stimuli/img_gbypq.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>89.19565217391305</v>
+        <v>76.27500000000001</v>
       </c>
       <c r="N8">
-        <v>72.52173913043478</v>
+        <v>51.925</v>
       </c>
       <c r="O8">
-        <v>80.85869565217391</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="P8">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1071,38 +1071,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_gbypq.png</t>
+          <t>stimuli/img_aweye.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>76.27500000000001</v>
+        <v>53.42105263157895</v>
       </c>
       <c r="N9">
-        <v>51.925</v>
+        <v>31.84210526315789</v>
       </c>
       <c r="O9">
-        <v>64.09999999999999</v>
+        <v>42.63157894736842</v>
       </c>
       <c r="P9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>371</v>
+        <v>293</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1312,38 +1312,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_aweye.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>53.42105263157895</v>
+        <v>65.25</v>
       </c>
       <c r="N12">
-        <v>31.84210526315789</v>
+        <v>44.8</v>
       </c>
       <c r="O12">
-        <v>42.63157894736842</v>
+        <v>55.025</v>
       </c>
       <c r="P12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1365,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>373</v>
+        <v>295</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>375</v>
+        <v>297</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>376</v>
+        <v>298</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1635,38 +1635,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_bj2gr.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>65.25</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N16">
-        <v>44.8</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O16">
-        <v>55.025</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P16">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1688,7 +1688,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1712,35 +1712,35 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_okvvw.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>50.58333333333334</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N17">
-        <v>32.11111111111111</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O17">
-        <v>41.34722222222223</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P17">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V17">
         <v>3</v>
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1871,38 +1871,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_2pk6v.png</t>
+          <t>stimuli/img_t4hvr.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>85.08108108108108</v>
+        <v>61.69230769230769</v>
       </c>
       <c r="N19">
-        <v>66.16216216216216</v>
+        <v>39.76923076923077</v>
       </c>
       <c r="O19">
-        <v>75.62162162162161</v>
+        <v>50.73076923076923</v>
       </c>
       <c r="P19">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V19">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1924,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1990,38 +1990,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_v8dra.png</t>
+          <t>stimuli/img_kzg3h.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>61.77272727272727</v>
+        <v>77.02777777777777</v>
       </c>
       <c r="N21">
-        <v>38.79545454545455</v>
+        <v>56.22222222222222</v>
       </c>
       <c r="O21">
-        <v>50.28409090909091</v>
+        <v>66.625</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2043,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2231,38 +2231,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_2pnl2.png</t>
+          <t>stimuli/img_2pk6v.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>6.621621621621622</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="N24">
-        <v>7.135135135135135</v>
+        <v>66.16216216216216</v>
       </c>
       <c r="O24">
-        <v>6.878378378378379</v>
+        <v>75.62162162162161</v>
       </c>
       <c r="P24">
         <v>37</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2284,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2390,38 +2390,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_cgdyc.png</t>
+          <t>stimuli/img_ic3os.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>32.93023255813954</v>
+        <v>84.79069767441861</v>
       </c>
       <c r="N26">
-        <v>14.04651162790698</v>
+        <v>66.16279069767442</v>
       </c>
       <c r="O26">
-        <v>23.48837209302326</v>
+        <v>75.47674418604652</v>
       </c>
       <c r="P26">
         <v>43</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2443,7 +2443,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2467,38 +2467,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_kzg3h.png</t>
+          <t>stimuli/img_z3yzz.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>77.02777777777777</v>
+        <v>71.71052631578948</v>
       </c>
       <c r="N27">
-        <v>56.22222222222222</v>
+        <v>49.81578947368421</v>
       </c>
       <c r="O27">
-        <v>66.625</v>
+        <v>60.76315789473685</v>
       </c>
       <c r="P27">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2520,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>389</v>
+        <v>311</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2703,38 +2703,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_yteqw.png</t>
+          <t>stimuli/img_2pnl2.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>66.83783783783784</v>
+        <v>6.621621621621622</v>
       </c>
       <c r="N30">
-        <v>43.78378378378378</v>
+        <v>7.135135135135135</v>
       </c>
       <c r="O30">
-        <v>55.31081081081081</v>
+        <v>6.878378378378379</v>
       </c>
       <c r="P30">
         <v>37</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2756,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2862,38 +2862,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_ic3os.png</t>
+          <t>stimuli/img_anzgh.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>84.79069767441861</v>
+        <v>75.10526315789474</v>
       </c>
       <c r="N32">
-        <v>66.16279069767442</v>
+        <v>55.76315789473684</v>
       </c>
       <c r="O32">
-        <v>75.47674418604652</v>
+        <v>65.43421052631579</v>
       </c>
       <c r="P32">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V32">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2915,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3021,38 +3021,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_z3yzz.png</t>
+          <t>stimuli/img_jivhq.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>71.71052631578948</v>
+        <v>37</v>
       </c>
       <c r="N34">
-        <v>49.81578947368421</v>
+        <v>22.26530612244898</v>
       </c>
       <c r="O34">
-        <v>60.76315789473685</v>
+        <v>29.63265306122449</v>
       </c>
       <c r="P34">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3074,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3098,38 +3098,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_t4hvr.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>61.69230769230769</v>
+        <v>80.75</v>
       </c>
       <c r="N35">
-        <v>39.76923076923077</v>
+        <v>61.475</v>
       </c>
       <c r="O35">
-        <v>50.73076923076923</v>
+        <v>71.1125</v>
       </c>
       <c r="P35">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V35">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -3151,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>396</v>
+        <v>318</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3421,38 +3421,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_3bxjb.png</t>
+          <t>stimuli/img_yteqw.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>87.28571428571429</v>
+        <v>66.83783783783784</v>
       </c>
       <c r="N39">
-        <v>72.65714285714286</v>
+        <v>43.78378378378378</v>
       </c>
       <c r="O39">
-        <v>79.97142857142858</v>
+        <v>55.31081081081081</v>
       </c>
       <c r="P39">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R39">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S39">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V39">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3498,38 +3498,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_fqgem.png</t>
+          <t>stimuli/img_3bxjb.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>80.75</v>
+        <v>87.28571428571429</v>
       </c>
       <c r="N40">
-        <v>61.475</v>
+        <v>72.65714285714286</v>
       </c>
       <c r="O40">
-        <v>71.1125</v>
+        <v>79.97142857142858</v>
       </c>
       <c r="P40">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V40">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3551,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3657,38 +3657,38 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_jivhq.png</t>
+          <t>stimuli/img_cgdyc.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>32.93023255813954</v>
       </c>
       <c r="N42">
-        <v>22.26530612244898</v>
+        <v>14.04651162790698</v>
       </c>
       <c r="O42">
-        <v>29.63265306122449</v>
+        <v>23.48837209302326</v>
       </c>
       <c r="P42">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_bedrooms_2.xlsx
@@ -1943,7 +1943,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/catch_04_supermarket.jpg</t>
+          <t>stimuli/catch_08.jpg</t>
         </is>
       </c>
     </row>
